--- a/收入计算表.xlsx
+++ b/收入计算表.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12660" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="计算表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>案件数</t>
   </si>
@@ -200,81 +200,43 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>案例号</t>
+    <t>主办金额占比</t>
   </si>
   <si>
-    <t>案例名称</t>
+    <t>副办金额占比</t>
   </si>
   <si>
-    <t>金额</t>
+    <t>主办件数收入部分</t>
   </si>
   <si>
-    <t>主办/副办</t>
+    <t>副办件数收入部分</t>
   </si>
   <si>
-    <t>月份</t>
+    <t>总件数</t>
   </si>
   <si>
-    <t>高源</t>
+    <t>主办占比</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
+    <t>副办占比</t>
   </si>
   <si>
-    <t>主</t>
+    <t>校准副办占比</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
+    <t>合计</t>
   </si>
   <si>
-    <t>董啸</t>
+    <t>主办</t>
   </si>
   <si>
-    <t>A01</t>
+    <t>A</t>
   </si>
   <si>
-    <t>B0</t>
+    <t>B</t>
   </si>
   <si>
-    <t>夏宇</t>
+    <t>副办</t>
   </si>
 </sst>
 </file>
@@ -282,15 +244,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -314,12 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -331,14 +301,6 @@
       <b/>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,50 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -421,17 +339,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,22 +369,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,24 +399,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,12 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,7 +524,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,31 +650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,127 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,31 +746,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -838,32 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -878,153 +805,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +994,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1041,34 +1036,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1077,61 +1066,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1152,19 +1114,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3132,7 +3094,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3734435" cy="417195"/>
+    <xdr:ext cx="3734435" cy="594995"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp>
@@ -3143,7 +3105,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="15116175" y="3303270"/>
-              <a:ext cx="3734435" cy="417195"/>
+              <a:ext cx="3734435" cy="594995"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3535,7 +3497,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="15116175" y="3303270"/>
-              <a:ext cx="3734435" cy="417195"/>
+              <a:ext cx="3734435" cy="594995"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4186,8 +4148,8 @@
   <sheetPr/>
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4206,31 +4168,31 @@
   </cols>
   <sheetData>
     <row r="2" ht="18" customHeight="1" spans="3:16">
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="41" t="s">
@@ -4241,23 +4203,23 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="3:16">
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="39">
         <v>2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G8" si="0">$C$24*LN(D3+$C$25)</f>
         <v>2208.5843671449</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:H8" si="1">$C$20*LN(C3+$C$21)</f>
         <v>0</v>
       </c>
@@ -4265,11 +4227,11 @@
         <f t="shared" ref="I3:I8" si="2">$O$20*POWER(C3,$O$19)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J8" si="3">LN(F3)*$C$16+$C$17</f>
         <v>668.380688059155</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="11">
         <f>SUM(G3,H3,J3)</f>
         <v>2876.96505520405</v>
       </c>
@@ -4282,23 +4244,23 @@
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="3:16">
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>400</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>2590.78894515587</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>693.147180559945</v>
       </c>
@@ -4306,11 +4268,11 @@
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K8" si="4">SUM(G4,H4,J4)</f>
         <v>3383.93612571582</v>
       </c>
@@ -4323,23 +4285,23 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="3:16">
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>200</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>2443.69903310575</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>1098.61228866811</v>
       </c>
@@ -4347,11 +4309,11 @@
         <f t="shared" si="2"/>
         <v>1385.91315488436</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="11">
         <f t="shared" si="4"/>
         <v>3642.31132177386</v>
       </c>
@@ -4363,24 +4325,24 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
-      <c r="C6" s="7">
+    <row r="6" s="13" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>1200</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
         <f t="shared" si="0"/>
         <v>2911.72753416585</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="28">
         <f t="shared" si="1"/>
         <v>1386.29436111989</v>
       </c>
@@ -4388,11 +4350,11 @@
         <f t="shared" si="2"/>
         <v>1586.47452733815</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="11">
         <f t="shared" si="4"/>
         <v>4398.02189528574</v>
       </c>
@@ -4400,28 +4362,28 @@
         <f t="shared" si="5"/>
         <v>4598.202061504</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="13">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
-      <c r="C7" s="7">
+    <row r="7" s="13" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>2214.93370680741</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>1609.4379124341</v>
       </c>
@@ -4429,11 +4391,11 @@
         <f t="shared" si="2"/>
         <v>1746.14115716502</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>1000.86207670785</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="11">
         <f t="shared" si="4"/>
         <v>4825.23369594937</v>
       </c>
@@ -4441,28 +4403,28 @@
         <f t="shared" si="5"/>
         <v>4961.93694068028</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="13">
         <v>3300</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="3:12">
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>3234.56411012951</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>1791.75946922805</v>
       </c>
@@ -4470,11 +4432,11 @@
         <f t="shared" si="2"/>
         <v>1880.97354134437</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="11">
         <f t="shared" si="4"/>
         <v>5126.32357935757</v>
       </c>
@@ -4500,7 +4462,7 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="25">
         <v>820</v>
       </c>
       <c r="D16">
@@ -4517,7 +4479,7 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="25">
         <v>100</v>
       </c>
       <c r="D17">
@@ -4549,7 +4511,7 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="25">
         <v>1000</v>
       </c>
       <c r="D20">
@@ -4576,7 +4538,7 @@
       <c r="N20" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="25">
         <v>1100</v>
       </c>
       <c r="P20">
@@ -4602,7 +4564,7 @@
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="25">
         <v>1</v>
       </c>
       <c r="D21">
@@ -4632,7 +4594,7 @@
       <c r="N21" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="25">
         <v>1</v>
       </c>
       <c r="P21">
@@ -4667,7 +4629,7 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="25">
         <v>400</v>
       </c>
       <c r="D24">
@@ -4714,7 +4676,7 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="25">
         <v>250</v>
       </c>
       <c r="D25">
@@ -4783,7 +4745,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5268,7 +5230,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:H21"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5292,42 +5254,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="2:8">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="10:11">
-      <c r="J2" s="8"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="34" t="s">
@@ -5336,183 +5298,183 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:11">
       <c r="A4" s="37"/>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>400</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <f>$C$35*LN(C4+$C$36)</f>
         <v>2590.78894515587</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="5">
         <f>$C$26*LN(B4+$C$27)</f>
         <v>693.147180559945</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="5">
         <f>LN(D4)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="11">
         <f>SUM(E4,F4,G4)</f>
         <v>3383.93612571582</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:8">
       <c r="A5" s="37"/>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>200</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <f>$C$35*LN(C5+$C$36)</f>
         <v>2443.69903310575</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="5">
         <f>$C$26*LN(B5+$C$27)</f>
         <v>1098.61228866811</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="5">
         <f>LN(D5)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="11">
         <f>SUM(E5,F5,G5)</f>
         <v>3642.31132177386</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:13">
+    <row r="6" s="13" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A6" s="37"/>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>1200</v>
       </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
         <f>$C$35*LN(C6+$C$36)</f>
         <v>2911.72753416585</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="28">
         <f>$C$26*LN(B6+$C$27)</f>
         <v>1386.29436111989</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="28">
         <f>LN(D6)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="11">
         <f>SUM(E6,F6,G6)</f>
         <v>4398.02189528574</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="13" t="str">
         <f>"a="&amp;C35</f>
         <v>a=400</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K6" s="13" t="str">
         <f>"b="&amp;C26</f>
         <v>b=1000</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="13" t="str">
         <f>"c="&amp;C22</f>
         <v>c=820</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M6" s="13" t="str">
         <f>"d="&amp;C23</f>
         <v>d=100</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="7" s="13" customFormat="1" ht="18" customHeight="1" spans="1:11">
       <c r="A7" s="37"/>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <f>$C$35*LN(C7+$C$36)</f>
         <v>2214.93370680741</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="5">
         <f>$C$26*LN(B7+$C$27)</f>
         <v>1609.4379124341</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="5">
         <f>LN(D7)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="11">
         <f>SUM(E7,F7,G7)</f>
         <v>3924.37161924151</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="13" t="str">
         <f>"x="&amp;C36</f>
         <v>x=250</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K7" s="13" t="str">
         <f>"y="&amp;C27</f>
         <v>y=1</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:8">
       <c r="A8" s="37"/>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>3000</v>
       </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <f>$C$35*LN(C8+$C$36)</f>
         <v>3234.56411012951</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="5">
         <f>$C$26*LN(B8+$C$27)</f>
         <v>1791.75946922805</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="5">
         <f>LN(D8)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="11">
         <f>SUM(E8,F8,G8)</f>
         <v>5126.32357935757</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="5:10">
-      <c r="E9" s="23">
+      <c r="E9" s="27">
         <f>SUM(E4:E8)</f>
         <v>13395.7133293644</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="27">
         <f>SUM(F4:F8)</f>
         <v>6579.2512120101</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="27">
         <f>SUM(G4:G8)</f>
         <v>500</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="27">
         <f>SUM(H4:H8)</f>
         <v>20474.9645413745</v>
       </c>
@@ -5524,25 +5486,25 @@
       <c r="J10" s="36"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:8">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="34" t="s">
@@ -5551,244 +5513,244 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:8">
       <c r="A13" s="37"/>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>400</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" ref="E13:E17" si="0">$C$35*LN(C13+$C$36)</f>
         <v>2590.78894515587</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="30">
         <f>$C$31*POWER((B13+$C$32),$C$30)</f>
         <v>1100</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="5">
         <f t="shared" ref="G13:G17" si="1">LN(D13)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="11">
         <f>SUM(E13,F13,G13)</f>
         <v>3790.78894515587</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:8">
       <c r="A14" s="37"/>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>200</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>2443.69903310575</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="30">
         <f>$C$31*POWER((B14+$C$32),$C$30)</f>
         <v>1385.91315488436</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="11">
         <f>SUM(E14,F14,G14)</f>
         <v>3929.61218799011</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+    <row r="15" s="13" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A15" s="37"/>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>1200</v>
       </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>2911.72753416585</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="30">
         <f>$C$31*POWER((B15+$C$32),$C$30)</f>
         <v>1586.47452733815</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="11">
         <f>SUM(E15,F15,G15)</f>
         <v>4598.202061504</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:13">
+    <row r="16" s="13" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A16" s="37"/>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>2214.93370680741</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="30">
         <f>$C$31*POWER((B16+$C$32),$C$30)</f>
         <v>1746.14115716502</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="11">
         <f>SUM(E16,F16,G16)</f>
         <v>4061.07486397243</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="J16" s="13" t="str">
         <f>"a="&amp;C35</f>
         <v>a=400</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="K16" s="13" t="str">
         <f>"b="&amp;C31</f>
         <v>b=1100</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="L16" s="13" t="str">
         <f>"c="&amp;C22</f>
         <v>c=820</v>
       </c>
-      <c r="M16" s="2" t="str">
+      <c r="M16" s="13" t="str">
         <f>"d="&amp;C23</f>
         <v>d=100</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:13">
       <c r="A17" s="37"/>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>3000</v>
       </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>3234.56411012951</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="30">
         <f>$C$31*POWER((B17+$C$32),$C$30)</f>
         <v>1880.97354134437</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="11">
         <f>SUM(E17,F17,G17)</f>
         <v>5215.53765147388</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="J17" s="13" t="str">
         <f>"x="&amp;C36</f>
         <v>x=250</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="K17" s="13" t="str">
         <f>"y="&amp;C32</f>
         <v>y=0</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="L17" s="13" t="str">
         <f>"q="&amp;1/C30</f>
         <v>q=3</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="5:8">
-      <c r="E18" s="23">
+      <c r="E18" s="27">
         <f>SUM(E13:E17)</f>
         <v>13395.7133293644</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="27">
         <f>SUM(F13:F17)</f>
         <v>7699.5023807319</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="27">
         <f>SUM(G13:G17)</f>
         <v>500</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="27">
         <f>SUM(H13:H17)</f>
         <v>21595.2157100963</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:8">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="21">
         <v>820</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="29" t="s">
+      <c r="J22" s="21"/>
+      <c r="K22" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="38"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="21">
         <v>100</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="22">
         <f>$C$22*LN(D22)+$C$23</f>
         <v>100</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="22">
         <f>$C$22*LN(E22)+$C$23</f>
         <v>668.380688059155</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="22">
         <f>$C$22*LN(F22)+$C$23</f>
         <v>1000.86207670785</v>
       </c>
@@ -5797,25 +5759,25 @@
       <c r="A26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="21">
         <v>1000</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>5</v>
       </c>
       <c r="J26" t="s">
@@ -5824,33 +5786,33 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="38"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="21">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22">
         <f>LN(D26+$C$27)*$C$26</f>
         <v>693.147180559945</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="22">
         <f>LN(E26+$C$27)*$C$26</f>
         <v>1098.61228866811</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="22">
         <f>LN(F26+$C$27)*$C$26</f>
         <v>1386.29436111989</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="22">
         <f>LN(G26+$C$27)*$C$26</f>
         <v>1609.4379124341</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="22">
         <f>LN(H26+$C$27)*$C$26</f>
         <v>1791.75946922805</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="32">
         <f>H27/D27</f>
         <v>2.58496250072116</v>
       </c>
@@ -5859,40 +5821,40 @@
       <c r="A30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="26">
         <f>1/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="38"/>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="21">
         <v>1100</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>4</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="3">
         <v>5</v>
       </c>
       <c r="J31" t="s">
@@ -5901,199 +5863,199 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="38"/>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="12">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="21">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
         <f t="shared" ref="D32:H32" si="2">POWER(D31,$C$30)*$C$31</f>
         <v>1100</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="22">
         <f t="shared" si="2"/>
         <v>1385.91315488436</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="22">
         <f t="shared" si="2"/>
         <v>1586.47452733815</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="22">
         <f t="shared" si="2"/>
         <v>1746.14115716502</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="22">
         <f t="shared" si="2"/>
         <v>1880.97354134437</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="32">
         <f>H32/D32</f>
         <v>1.7099759466767</v>
       </c>
     </row>
     <row r="33" spans="10:10">
-      <c r="J33" s="31"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="10:10">
-      <c r="J34" s="31"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="21">
         <v>400</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>10</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>20</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="3">
         <v>30</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>50</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="38"/>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="21">
         <v>250</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="22">
         <f>LN(D35+$C$36)*$C$35</f>
         <v>2224.27265240621</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="22">
         <f>LN(E35+$C$36)*$C$35</f>
         <v>2239.36878359935</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="22">
         <f>LN(F35+$C$36)*$C$35</f>
         <v>2253.9158412677</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="22">
         <f>LN(G35+$C$36)*$C$35</f>
         <v>2281.51298986248</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="22">
         <f>LN(H35+$C$36)*$C$35</f>
         <v>2343.17326179338</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="32">
         <f>E42/D36</f>
         <v>1.45421205742487</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="38"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="38"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
         <v>200</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="3">
         <v>500</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>600</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>800</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="38"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="13">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="22">
         <f>LN(D38+$C$36)*$C$35</f>
         <v>2443.69903310575</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="22">
         <f>LN(E38+$C$36)*$C$35</f>
         <v>2648.02928261214</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="22">
         <f>LN(F38+$C$36)*$C$35</f>
         <v>2698.09453979374</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="22">
         <f>LN(G38+$C$36)*$C$35</f>
         <v>2782.61817726063</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="22">
         <f>LN(H38+$C$36)*$C$35</f>
         <v>2852.35953211854</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="38"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="38"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="38"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="13">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="22">
         <f>LN(D41+$C$36)*$C$35</f>
         <v>3087.47419807939</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="22">
         <f>LN(E41+$C$36)*$C$35</f>
         <v>3234.56411012951</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6118,13 +6080,13 @@
   <sheetPr/>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
@@ -6146,430 +6108,430 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="2:8">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" ht="27" spans="2:8">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" ht="27" spans="2:8">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="18:19">
-      <c r="R4" s="8"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:16">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:24">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
         <v>3000</v>
       </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <f>$C$40*LN($C$42*C6*0.6+$C$41)</f>
-        <v>823.695533744927</v>
-      </c>
-      <c r="H6" s="20">
+        <v>2985.89630982536</v>
+      </c>
+      <c r="H6" s="5">
         <f>$C$45*LN($C$47*E6*0.4+$C$46)</f>
-        <v>315.382944145708</v>
-      </c>
-      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <f>H6+G6</f>
-        <v>1139.07847789064</v>
-      </c>
-      <c r="J6" s="20">
-        <f>$C$28*LN(B6+$C$29)</f>
-        <v>2079.44154167984</v>
-      </c>
-      <c r="K6" s="20">
-        <f>$C$30*LN(D6+$C$31)</f>
-        <v>1663.55323334387</v>
-      </c>
-      <c r="L6" s="26">
+        <v>2985.89630982536</v>
+      </c>
+      <c r="J6" s="5">
+        <f>$C$28*LN(B6+$C$29)*(LN(B6+1)/2.5)</f>
+        <v>24.6019197568969</v>
+      </c>
+      <c r="K6" s="5">
+        <f>$C$30*LN(D6+$C$31)*(LN(D6+1)/3)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
         <f>J6+K6</f>
-        <v>3742.9947750237</v>
-      </c>
-      <c r="M6" s="26">
+        <v>24.6019197568969</v>
+      </c>
+      <c r="M6" s="9">
         <f>LN(F6)*$C$24+$C$25</f>
         <v>80</v>
       </c>
-      <c r="N6" s="26">
-        <v>2500</v>
-      </c>
-      <c r="O6" s="33">
+      <c r="N6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O6" s="11">
         <f>SUM(I6,L6,M6,)</f>
-        <v>4962.07325291434</v>
-      </c>
-      <c r="P6" s="18">
-        <f>O6+2500</f>
-        <v>7462.07325291434</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="X6" t="e">
+        <v>3090.49822958226</v>
+      </c>
+      <c r="P6" s="26">
+        <f>O6+N6</f>
+        <v>5090.49822958226</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="X6">
         <f>G6/G8</f>
-        <v>#DIV/0!</v>
+        <v>1.60413364998247</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:24">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
         <v>3000</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
         <f>$C$40*LN($C$42*C7*0.6+$C$41)</f>
-        <v>823.695533744927</v>
-      </c>
-      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <f>$C$45*LN($C$47*E7*0.4+$C$46)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
+        <v>1182.68604054641</v>
+      </c>
+      <c r="I7" s="9">
         <f>H7+G7</f>
-        <v>823.695533744927</v>
-      </c>
-      <c r="J7" s="20">
-        <f>$C$28*LN(B7+$C$29)</f>
-        <v>2079.44154167984</v>
-      </c>
-      <c r="K7" s="20">
-        <f>$C$30*LN(D7+$C$31)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
+        <v>1182.68604054641</v>
+      </c>
+      <c r="J7" s="5">
+        <f>$C$28*LN(B7+$C$29)*(LN(B7+1)/2.5)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f>$C$30*LN(D7+$C$31)*(LN(D7+1)/3)</f>
+        <v>1915.5872686199</v>
+      </c>
+      <c r="L7" s="9">
         <f>J7+K7</f>
-        <v>2079.44154167984</v>
-      </c>
-      <c r="M7" s="26">
+        <v>1915.5872686199</v>
+      </c>
+      <c r="M7" s="9">
         <f>LN(F7)*$C$24+$C$25</f>
         <v>80</v>
       </c>
-      <c r="N7" s="26">
-        <v>2500</v>
-      </c>
-      <c r="O7" s="33">
+      <c r="N7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O7" s="11">
         <f>SUM(I7,L7,M7,)</f>
-        <v>2983.13707542476</v>
-      </c>
-      <c r="P7" s="18">
-        <f>O7+2500</f>
-        <v>5483.13707542476</v>
-      </c>
-      <c r="X7" t="e">
+        <v>3178.27330916631</v>
+      </c>
+      <c r="P7" s="26">
+        <f>O7+N7</f>
+        <v>5178.27330916631</v>
+      </c>
+      <c r="X7">
         <f>G7/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:20">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="13" customFormat="1" ht="18" customHeight="1" spans="1:20">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
         <f>$C$40*LN($C$42*C8*0.6+$C$41)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
+        <v>1861.37626989994</v>
+      </c>
+      <c r="H8" s="5">
         <f>$C$45*LN($C$47*E8*0.4+$C$46)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="26">
+        <v>705.005443868603</v>
+      </c>
+      <c r="I8" s="9">
         <f>H8+G8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <f>$C$28*LN(B8+$C$29)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <f>$C$30*LN(D8+$C$31)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="26">
+        <v>2566.38171376855</v>
+      </c>
+      <c r="J8" s="5">
+        <f>$C$28*LN(B8+$C$29)*(LN(B8+1)/1.3)</f>
+        <v>28.6604544077772</v>
+      </c>
+      <c r="K8" s="5">
+        <f>$C$30*LN(D8+$C$31)*(LN(D8+1)/3)</f>
+        <v>1293.91322425862</v>
+      </c>
+      <c r="L8" s="9">
         <f>J8+K8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="26">
+        <v>1322.5736786664</v>
+      </c>
+      <c r="M8" s="9">
         <f>LN(F8)*$C$24+$C$25</f>
         <v>80</v>
       </c>
-      <c r="N8" s="26">
-        <v>2500</v>
-      </c>
-      <c r="O8" s="33">
+      <c r="N8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="11">
         <f>SUM(I8,L8,M8,)</f>
-        <v>80</v>
-      </c>
-      <c r="P8" s="18">
-        <f>O8+2500</f>
-        <v>2580</v>
-      </c>
-      <c r="Q8" s="2" t="str">
+        <v>3968.95539243495</v>
+      </c>
+      <c r="P8" s="26">
+        <f>O8+N8</f>
+        <v>5968.95539243495</v>
+      </c>
+      <c r="Q8" s="13" t="str">
         <f>"a="&amp;C40</f>
-        <v>a=800</v>
-      </c>
-      <c r="R8" s="2" t="str">
+        <v>a=2900</v>
+      </c>
+      <c r="R8" s="13" t="str">
         <f>"b="&amp;C28</f>
-        <v>b=1500</v>
-      </c>
-      <c r="S8" s="2" t="str">
+        <v>b=10</v>
+      </c>
+      <c r="S8" s="13" t="str">
         <f>"c="&amp;C24</f>
         <v>c=600</v>
       </c>
-      <c r="T8" s="2" t="str">
+      <c r="T8" s="13" t="str">
         <f>"d="&amp;C25</f>
         <v>d=80</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
+    <row r="9" s="13" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>300</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
         <f>$C$40*LN($C$42*C9*0.6+$C$41)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
+        <v>479.991871584963</v>
+      </c>
+      <c r="H9" s="5">
         <f>$C$45*LN($C$47*E9*0.4+$C$46)</f>
-        <v>315.382944145708</v>
-      </c>
-      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <f>H9+G9</f>
-        <v>315.382944145708</v>
-      </c>
-      <c r="J9" s="20">
-        <f>$C$28*LN(B9+$C$29)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <f>$C$30*LN(D9+$C$31)</f>
-        <v>1663.55323334387</v>
-      </c>
-      <c r="L9" s="26">
+        <v>479.991871584963</v>
+      </c>
+      <c r="J9" s="5">
+        <f>$C$28*LN(B9+$C$29)*(LN(B9+1)/1.3)</f>
+        <v>7.39158482951079</v>
+      </c>
+      <c r="K9" s="5">
+        <f>$C$30*LN(D9+$C$31)*(LN(D9+1)/3)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
         <f>J9+K9</f>
-        <v>1663.55323334387</v>
-      </c>
-      <c r="M9" s="26">
+        <v>7.39158482951079</v>
+      </c>
+      <c r="M9" s="9">
         <f>LN(F9)*$C$24+$C$25</f>
         <v>80</v>
       </c>
-      <c r="N9" s="26">
-        <v>2500</v>
-      </c>
-      <c r="O9" s="33">
+      <c r="N9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O9" s="11">
         <f>SUM(I9,L9,M9,)</f>
-        <v>2058.93617748958</v>
-      </c>
-      <c r="P9" s="18">
-        <f>O9+2500</f>
-        <v>4558.93617748958</v>
-      </c>
-      <c r="Q9" s="2" t="str">
+        <v>567.383456414473</v>
+      </c>
+      <c r="P9" s="26">
+        <f>O9+N9</f>
+        <v>2567.38345641447</v>
+      </c>
+      <c r="Q9" s="13" t="str">
         <f>"x="&amp;C41</f>
         <v>x=1</v>
       </c>
-      <c r="R9" s="2" t="str">
+      <c r="R9" s="13" t="str">
         <f>"y="&amp;C29</f>
-        <v>y=1</v>
+        <v>y=3</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>300</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
         <f>$C$40*LN($C$42*C10*0.6+$C$41)</f>
-        <v>132.411550782059</v>
-      </c>
-      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <f>$C$45*LN($C$47*E10*0.4+$C$46)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="9">
         <f>H10+G10</f>
-        <v>132.411550782059</v>
-      </c>
-      <c r="J10" s="20">
-        <f>$C$28*LN(B10+$C$29)</f>
-        <v>1039.72077083992</v>
-      </c>
-      <c r="K10" s="20">
-        <f>$C$30*LN(D10+$C$31)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f>$C$28*LN(B10+$C$29)*(LN(B10+1)/1.3)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f>$C$30*LN(D10+$C$31)*(LN(D10+1)/3)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
         <f>J10+K10</f>
-        <v>1039.72077083992</v>
-      </c>
-      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
         <f>LN(F10)*$C$24+$C$25</f>
         <v>80</v>
       </c>
-      <c r="N10" s="26">
-        <v>2500</v>
-      </c>
-      <c r="O10" s="33">
+      <c r="N10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O10" s="11">
         <f>SUM(I10,L10,M10,)</f>
-        <v>1252.13232162198</v>
-      </c>
-      <c r="P10" s="18">
-        <f>O10+2500</f>
-        <v>3752.13232162198</v>
+        <v>80</v>
+      </c>
+      <c r="P10" s="26">
+        <f>O10+N10</f>
+        <v>2080</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="8:18">
-      <c r="H11" s="23">
+      <c r="H11" s="27">
         <f>SUM(G6:G10)</f>
-        <v>1779.80261827191</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23">
+        <v>5327.26445131027</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27">
         <f>SUM(J6:J10)</f>
-        <v>5198.60385419959</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23">
+        <v>60.6539589941849</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27">
         <f>SUM(M6:M10)</f>
         <v>400</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="27">
         <f>SUM(O6:O10)</f>
-        <v>11336.2788274507</v>
-      </c>
-      <c r="P11" s="23">
+        <v>10885.110387598</v>
+      </c>
+      <c r="P11" s="27">
         <f>SUM(P6:P10)</f>
-        <v>23836.2788274507</v>
+        <v>20885.110387598</v>
       </c>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
@@ -6580,363 +6542,363 @@
     </row>
     <row r="13" hidden="1"/>
     <row r="14" ht="18" hidden="1" customHeight="1" spans="1:16">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="27" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="21" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="21"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="18" hidden="1" customHeight="1" spans="1:16">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
         <v>1800</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" ref="H15:H19" si="0">$C$40*LN(C15+$C$41)</f>
-        <v>5996.87787614076</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="28">
+        <v>21738.6823010103</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="30">
         <f>$C$36*POWER((B15+$C$37),$C$35)</f>
         <v>1100</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="20">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="5">
         <f t="shared" ref="N15:N19" si="1">LN(G15)*$C$24+$C$25</f>
         <v>80</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="33">
+      <c r="O15" s="5"/>
+      <c r="P15" s="11">
         <f>SUM(H15,K15,N15)</f>
-        <v>7176.87787614076</v>
+        <v>22918.6823010103</v>
       </c>
     </row>
     <row r="16" ht="18" hidden="1" customHeight="1" spans="1:16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <v>1200</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>5672.72785766399</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="28">
+        <v>20563.638484032</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="30">
         <f>$C$36*POWER((B16+$C$37),$C$35)</f>
         <v>1100</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="20">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="33">
+      <c r="O16" s="5"/>
+      <c r="P16" s="11">
         <f>SUM(H16,K16,N16)</f>
-        <v>6852.72785766399</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:16">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7">
+        <v>21743.638484032</v>
+      </c>
+    </row>
+    <row r="17" s="13" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:16">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>3000</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="24">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
-        <v>6405.36067635229</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="28">
+        <v>23219.4324517771</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="30">
         <f>$C$36*POWER((B17+$C$37),$C$35)</f>
         <v>1385.91315488436</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="24">
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="28">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="33">
+      <c r="O17" s="28"/>
+      <c r="P17" s="11">
         <f>SUM(H17,K17,N17)</f>
-        <v>7871.27383123665</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7">
+        <v>24685.3456066614</v>
+      </c>
+    </row>
+    <row r="18" s="13" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>1287.55032994728</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="28">
+        <v>4667.36994605889</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="30">
         <f>$C$36*POWER((B18+$C$37),$C$35)</f>
         <v>1746.14115716502</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="20">
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="33">
+      <c r="O18" s="5"/>
+      <c r="P18" s="11">
         <f>SUM(H18,K18,N18)</f>
-        <v>3113.6914871123</v>
-      </c>
-      <c r="R18" s="2" t="str">
+        <v>6493.51110322391</v>
+      </c>
+      <c r="R18" s="13" t="str">
         <f>"a="&amp;C40</f>
-        <v>a=800</v>
-      </c>
-      <c r="S18" s="2" t="str">
+        <v>a=2900</v>
+      </c>
+      <c r="S18" s="13" t="str">
         <f>"b="&amp;C36</f>
         <v>b=1100</v>
       </c>
-      <c r="T18" s="2" t="str">
+      <c r="T18" s="13" t="str">
         <f>"c="&amp;C24</f>
         <v>c=600</v>
       </c>
-      <c r="U18" s="2" t="str">
+      <c r="U18" s="13" t="str">
         <f>"d="&amp;C25</f>
         <v>d=80</v>
       </c>
     </row>
     <row r="19" ht="18" hidden="1" customHeight="1" spans="1:21">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>3000</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>6405.36067635229</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="28">
+        <v>23219.4324517771</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="30">
         <f>$C$36*POWER((B19+$C$37),$C$35)</f>
         <v>1880.97354134437</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="20">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="33">
+      <c r="O19" s="5"/>
+      <c r="P19" s="11">
         <f>SUM(H19,K19,N19)</f>
-        <v>8366.33421769666</v>
-      </c>
-      <c r="R19" s="2" t="str">
+        <v>25180.4059931214</v>
+      </c>
+      <c r="R19" s="13" t="str">
         <f>"x="&amp;C41</f>
         <v>x=1</v>
       </c>
-      <c r="S19" s="2" t="str">
+      <c r="S19" s="13" t="str">
         <f>"y="&amp;C37</f>
         <v>y=0</v>
       </c>
-      <c r="T19" s="2" t="str">
+      <c r="T19" s="13" t="str">
         <f>"q="&amp;1/C35</f>
         <v>q=3</v>
       </c>
-      <c r="U19" s="2"/>
+      <c r="U19" s="13"/>
     </row>
     <row r="20" hidden="1" spans="6:11">
-      <c r="F20" s="23">
+      <c r="F20" s="27">
         <f>SUM(H15:H19)</f>
-        <v>25767.8774164566</v>
-      </c>
-      <c r="G20" s="23">
+        <v>93408.5556346552</v>
+      </c>
+      <c r="G20" s="27">
         <f>SUM(K15:K19)</f>
         <v>7213.02785339375</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="27">
         <f>SUM(N15:N19)</f>
         <v>400</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23">
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27">
         <f>SUM(P15:P19)</f>
-        <v>33380.9052698504</v>
+        <v>101021.583488049</v>
       </c>
     </row>
     <row r="21" hidden="1"/>
     <row r="23" ht="33" customHeight="1" spans="1:8">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="21">
         <v>600</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="29" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="21">
         <v>80</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="22">
         <f>$C$24*LN(D24)+$C$25</f>
         <v>80</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="22">
         <f>$C$24*LN(E24)+$C$25</f>
         <v>495.888308335967</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="22">
         <f>$C$24*LN(F24)+$C$25</f>
         <v>739.167373200866</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="22">
         <f>$C$24*LN(G24)+$C$25</f>
         <v>911.776616671934</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="22">
         <f>$C$24*LN(H24)+$C$25</f>
         <v>1045.66274746046</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="12">
-        <v>1500</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="C28" s="21">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <v>4</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>5</v>
       </c>
       <c r="J28" t="s">
@@ -6944,119 +6906,119 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="21">
+        <v>3</v>
+      </c>
+      <c r="D29" s="22">
         <f>LN(D28+$C$29)*$C$28</f>
-        <v>1039.72077083992</v>
-      </c>
-      <c r="E29" s="13">
+        <v>13.8629436111989</v>
+      </c>
+      <c r="E29" s="22">
         <f>LN(E28+$C$29)*$C$28</f>
-        <v>1647.91843300216</v>
-      </c>
-      <c r="F29" s="13">
+        <v>16.094379124341</v>
+      </c>
+      <c r="F29" s="22">
         <f>LN(F28+$C$29)*$C$28</f>
-        <v>2079.44154167984</v>
-      </c>
-      <c r="G29" s="13">
+        <v>17.9175946922805</v>
+      </c>
+      <c r="G29" s="22">
         <f>LN(G28+$C$29)*$C$28</f>
-        <v>2414.15686865115</v>
-      </c>
-      <c r="H29" s="13">
+        <v>19.4591014905531</v>
+      </c>
+      <c r="H29" s="22">
         <f>LN(H28+$C$29)*$C$28</f>
-        <v>2687.63920384208</v>
-      </c>
-      <c r="J29" s="30">
+        <v>20.7944154167984</v>
+      </c>
+      <c r="J29" s="32">
         <f>H29/D29</f>
-        <v>2.58496250072116</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="12">
-        <v>1200</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="J30" s="30"/>
+      <c r="C30" s="21">
+        <v>800</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="J31" s="30"/>
+      <c r="C31" s="21">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="J32" s="30"/>
+      <c r="A32" s="16"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="17"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="26">
         <f>1/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="21">
         <v>1100</v>
       </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>3</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="3">
         <v>4</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <v>5</v>
       </c>
       <c r="J36" t="s">
@@ -7064,216 +7026,216 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
         <f t="shared" ref="D37:H37" si="2">POWER(D36,$C$35)*$C$36</f>
         <v>1100</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="22">
         <f t="shared" si="2"/>
         <v>1385.91315488436</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="22">
         <f t="shared" si="2"/>
         <v>1586.47452733815</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="22">
         <f t="shared" si="2"/>
         <v>1746.14115716502</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="22">
         <f t="shared" si="2"/>
         <v>1880.97354134437</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="32">
         <f>H37/D37</f>
         <v>1.7099759466767</v>
       </c>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="31"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="31"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="12">
-        <v>800</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="21">
+        <v>2900</v>
+      </c>
+      <c r="D40" s="3">
         <v>10</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="3">
         <v>20</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>30</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>50</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="3">
         <v>100</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="11"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="21">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22">
         <f>LN(D40+$C$41)*$C$40</f>
-        <v>1918.3162182387</v>
-      </c>
-      <c r="E41" s="13">
+        <v>6953.89629111527</v>
+      </c>
+      <c r="E41" s="22">
         <f>LN(E40+$C$41)*$C$40</f>
-        <v>2435.61795017874</v>
-      </c>
-      <c r="F41" s="13">
+        <v>8829.11506939793</v>
+      </c>
+      <c r="F41" s="22">
         <f>LN(F40+$C$41)*$C$40</f>
-        <v>2747.18976358812</v>
-      </c>
-      <c r="G41" s="13">
+        <v>9958.56289300692</v>
+      </c>
+      <c r="G41" s="22">
         <f>LN(G40+$C$41)*$C$40</f>
-        <v>3145.46050617946</v>
-      </c>
-      <c r="H41" s="13">
+        <v>11402.2943349005</v>
+      </c>
+      <c r="H41" s="22">
         <f>LN(H40+$C$41)*$C$40</f>
-        <v>3692.09641347301</v>
-      </c>
-      <c r="J41" s="30">
+        <v>13383.8494988397</v>
+      </c>
+      <c r="J41" s="32">
         <f>E47/D41</f>
         <v>3.33905360099253</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="11"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="21">
         <v>0.001</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="11"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="13">
+      <c r="A44" s="20"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="22">
         <f>LN(D43+$C$41)*$C$40</f>
-        <v>4242.64392644726</v>
-      </c>
-      <c r="E44" s="13">
+        <v>15379.5842333713</v>
+      </c>
+      <c r="E44" s="22">
         <f>LN(E43+$C$41)*$C$40</f>
-        <v>4973.28488086789</v>
-      </c>
-      <c r="F44" s="13">
+        <v>18028.1576931461</v>
+      </c>
+      <c r="F44" s="22">
         <f>LN(F43+$C$41)*$C$40</f>
-        <v>5118.87594762817</v>
-      </c>
-      <c r="G44" s="13">
+        <v>18555.9253101521</v>
+      </c>
+      <c r="G44" s="22">
         <f>LN(G43+$C$41)*$C$40</f>
-        <v>5348.68875765469</v>
-      </c>
-      <c r="H44" s="13">
+        <v>19388.9967464982</v>
+      </c>
+      <c r="H44" s="22">
         <f>LN(H43+$C$41)*$C$40</f>
-        <v>5527.00382345218</v>
+        <v>20035.3888600141</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="12">
-        <v>400</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="C45" s="21">
+        <v>1500</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="11"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C46" s="21">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="11"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="21">
         <v>0.001</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="22">
         <f>LN(D46+$C$41)*$C$40</f>
-        <v>6081.12186766699</v>
-      </c>
-      <c r="E47" s="13">
+        <v>22044.0667702928</v>
+      </c>
+      <c r="E47" s="22">
         <f>LN(E46+$C$41)*$C$40</f>
-        <v>6405.36067635229</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+        <v>23219.4324517771</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7296,72 +7258,534 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F7"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="35" width="12.625"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="1" ht="24" customHeight="1"/>
+    <row r="2" ht="70" customHeight="1" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="R2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>300</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(B3=0,0,$B$15*(LN($B$16+(C3+E3)*0.001))*(C3/(C3+E3)))</f>
+        <v>1167.39477439065</v>
+      </c>
+      <c r="H3" s="5">
+        <f>IF(E3=0,0,$B$20*(LN($B$21+(C3+E3)*0.001))*(E3/(C3+E3)))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>IF(C3=0,0,C3/(C3+E3))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <f>IF(E3=0,0,E3/(C3+E3))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <f>G3+H3</f>
+        <v>1167.39477439065</v>
+      </c>
+      <c r="L3" s="5">
+        <f>B3*150*O3</f>
+        <v>150</v>
+      </c>
+      <c r="M3" s="5">
+        <f>D3*150*Q3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f>D3+B3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <f>IF(N3=0,0,B3/N3)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <f>IF(N3=0,0,D3/N3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>P3*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <f>L3+M3</f>
+        <v>150</v>
+      </c>
+      <c r="S3" s="9">
+        <f>F3*100</f>
+        <v>200</v>
+      </c>
+      <c r="T3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="U3" s="11">
+        <f>SUM(K3,R3,S3,T3)</f>
+        <v>3517.39477439065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>300</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IF(B4=0,0,$B$15*(LN($B$16+(C4+E4)*0.001))*(C4/(C4+E4)))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f>IF(E4=0,0,$B$20*(LN($B$21+(C4+E4)*0.001))*(E4/(C4+E4)))</f>
+        <v>583.036386054573</v>
+      </c>
+      <c r="I4" s="5">
+        <f>IF(C4=0,0,C4/(C4+E4))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <f>IF(E4=0,0,E4/(C4+E4))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <f>G4+H4</f>
+        <v>583.036386054573</v>
+      </c>
+      <c r="L4" s="5">
+        <f>B4*150*O4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <f>D4*150*Q4</f>
+        <v>112.5</v>
+      </c>
+      <c r="N4" s="5">
+        <f>D4+B4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <f>IF(N4=0,0,B4/N4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f>IF(N4=0,0,D4/N4)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>P4*3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="R4" s="9">
+        <f>L4+M4</f>
+        <v>112.5</v>
+      </c>
+      <c r="S4" s="9">
+        <f>F4*100</f>
+        <v>100</v>
+      </c>
+      <c r="T4" s="9">
+        <v>2000</v>
+      </c>
+      <c r="U4" s="11">
+        <f>SUM(K4,R4,S4,T4)</f>
+        <v>2795.53638605457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IF(B5=0,0,$B$15*(LN($B$16+(C5+E5)*0.001))*(C5/(C5+E5)))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>IF(E5=0,0,$B$20*(LN($B$21+(C5+E5)*0.001))*(E5/(C5+E5)))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>IF(C5=0,0,C5/(C5+E5))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f>IF(E5=0,0,E5/(C5+E5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f>G5+H5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <f>B5*150*O5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <f>D5*150*Q5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <f>D5+B5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>IF(N5=0,0,B5/N5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f>IF(N5=0,0,D5/N5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>P5*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <f>L5+M5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <f>F5*100</f>
+        <v>100</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="U5" s="11">
+        <f>SUM(K5,R5,S5,T5)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IF(B6=0,0,$B$15*(LN($B$16+(C6+E6)*0.001))*(C6/(C6+E6)))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <f>IF(E6=0,0,$B$20*(LN($B$21+(C6+E6)*0.001))*(E6/(C6+E6)))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f>IF(C6=0,0,C6/(C6+E6))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f>IF(E6=0,0,E6/(C6+E6))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <f>G6+H6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <f>B6*150*O6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <f>D6*150*Q6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <f>D6+B6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f>IF(N6=0,0,B6/N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f>IF(N6=0,0,D6/N6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>P6*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <f>L6+M6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f>F6*100</f>
+        <v>100</v>
+      </c>
+      <c r="T6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="U6" s="11">
+        <f>SUM(K6,R6,S6,T6)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IF(B7=0,0,$B$15*(LN($B$16+(C7+E7)*0.001))*(C7/(C7+E7)))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f>IF(E7=0,0,$B$20*(LN($B$21+(C7+E7)*0.001))*(E7/(C7+E7)))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>IF(C7=0,0,C7/(C7+E7))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f>IF(E7=0,0,E7/(C7+E7))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <f>G7+H7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f>B7*150*O7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f>D7*150*Q7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f>D7+B7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f>IF(N7=0,0,B7/N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f>IF(N7=0,0,D7/N7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>P7*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <f>L7+M7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <f>F7*100</f>
+        <v>100</v>
+      </c>
+      <c r="T7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="U7" s="11">
+        <f>SUM(K7,R7,S7,T7)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="21:21">
+      <c r="U8" s="12">
+        <f>SUM(U3:U7)</f>
+        <v>12612.9311604452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
